--- a/Stimulus code/PIPmanip3_loop.xlsx
+++ b/Stimulus code/PIPmanip3_loop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C25907-F8C5-C248-AE27-55C60E1BF3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FBF1F2-56C8-9241-AC40-54E919B6D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2580" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="16">
   <si>
     <t>trial_type</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>space</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>catch</t>
   </si>
   <si>
     <t>GO</t>
@@ -394,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -410,10 +401,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -426,8 +417,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -446,8 +437,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -466,8 +457,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -486,8 +477,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -506,14 +497,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -526,14 +517,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -546,14 +537,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -566,14 +557,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -586,91 +577,91 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14">
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -679,18 +670,18 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15">
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -699,18 +690,18 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
+      <c r="A16">
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -719,18 +710,18 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
+      <c r="A17">
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -739,264 +730,264 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A18">
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19">
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20">
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21">
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22">
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
+      <c r="A23">
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
+      <c r="A30">
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1006,222 +997,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
+      <c r="A31">
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Stimulus code/PIPmanip3_loop.xlsx
+++ b/Stimulus code/PIPmanip3_loop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FBF1F2-56C8-9241-AC40-54E919B6D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714FDC34-6403-D048-9E8F-A6C2EAB65963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2580" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Stimulus code/PIPmanip3_loop.xlsx
+++ b/Stimulus code/PIPmanip3_loop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714FDC34-6403-D048-9E8F-A6C2EAB65963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94422B39-F1E0-A544-B07E-9CBD2B02406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2580" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="15">
   <si>
     <t>trial_type</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>square</t>
-  </si>
-  <si>
-    <t>STOP</t>
   </si>
   <si>
     <t>pip3</t>
@@ -385,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -401,10 +398,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -418,7 +415,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -427,10 +424,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -438,7 +435,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -447,10 +444,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -458,7 +455,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -470,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -490,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -498,19 +495,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -518,19 +515,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -538,19 +535,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -558,19 +555,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -578,19 +575,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -598,19 +595,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -618,10 +615,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -630,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -638,10 +635,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -650,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -658,7 +655,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -667,10 +664,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -678,7 +675,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -687,10 +684,10 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -698,7 +695,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -710,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -718,7 +715,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -730,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -741,19 +738,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -761,19 +758,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -793,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -813,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -824,16 +821,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -844,16 +841,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -873,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -893,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -921,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -941,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -961,58 +958,18 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
         <v>5</v>
       </c>
     </row>
